--- a/stats_review/econometrics_terms.xlsx
+++ b/stats_review/econometrics_terms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Term</t>
   </si>
@@ -178,6 +178,54 @@
   </si>
   <si>
     <t>Sample mean will equal population mean as n approaches inf</t>
+  </si>
+  <si>
+    <t>Asymptotic normality</t>
+  </si>
+  <si>
+    <t>P(X_n \leq z) tends towards Gaussian CDF of z, as n goes to inf</t>
+  </si>
+  <si>
+    <t>Central Limit Theorem</t>
+  </si>
+  <si>
+    <t>Normalized sum of continuous random variables tends towards Gaussian CDF. Even if input variables are not Gaussian. E.g. Distribution of sample means will be Gaussian, even if population is non-Gaussian</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood</t>
+  </si>
+  <si>
+    <t>MLE</t>
+  </si>
+  <si>
+    <t>MLE = Argmax theta L(\theta;Y) = f(Y1;\theta) * … *  f(YN;\theta)</t>
+  </si>
+  <si>
+    <t>Theta which produces the highest likelihood of the data seen</t>
+  </si>
+  <si>
+    <t>c(DOF, alpha)</t>
+  </si>
+  <si>
+    <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>[ybar +/- c(alpha/2) * s/(n^.5)]</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>\alpha</t>
+  </si>
+  <si>
+    <t>c_{alpha} = 100(1-\alpha)</t>
+  </si>
+  <si>
+    <t>c_alpha</t>
+  </si>
+  <si>
+    <t>Number of standard distributions to cover desired 100(1-\alpha) percentile</t>
   </si>
 </sst>
 </file>
@@ -226,17 +274,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -763,6 +823,66 @@
       </c>
       <c r="D16" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/stats_review/econometrics_terms.xlsx
+++ b/stats_review/econometrics_terms.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>Term</t>
   </si>
@@ -226,6 +226,69 @@
   </si>
   <si>
     <t>Number of standard distributions to cover desired 100(1-\alpha) percentile</t>
+  </si>
+  <si>
+    <t>Null Hypothesis</t>
+  </si>
+  <si>
+    <t>H_{0}</t>
+  </si>
+  <si>
+    <t>The default hypothesis, to be accepted 'until proven otherwise'</t>
+  </si>
+  <si>
+    <t>Alternatuve Hypothesis</t>
+  </si>
+  <si>
+    <t>H_{a}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hypothesis we're interested in proving. </t>
+  </si>
+  <si>
+    <t>Signifcance level</t>
+  </si>
+  <si>
+    <t>P(Reject H_0 | H_0)</t>
+  </si>
+  <si>
+    <t>The probability that we reject the null hypothesis, when null hypothesis is actually true. Likelihood of Type 1 Error.</t>
+  </si>
+  <si>
+    <t>Test statistic</t>
+  </si>
+  <si>
+    <t>T (metric), t (observed metric)</t>
+  </si>
+  <si>
+    <t>Some metric we're interested in using in a hypothesis test. Compared to c (critical value)</t>
+  </si>
+  <si>
+    <t>Critical value</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Thecutoff value of the test statistic (metric) we're measuring, at which still accept H_0. Can be upper bound, lower bound, or both depending on form of H_a</t>
+  </si>
+  <si>
+    <t>Asymptotic Tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of sample means is Gaussian, even if population distribution is non-Gaussian (as n to inf), by CLT. </t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Probability of seeing observed t score given that H_0 is correct. Largest \alpha at which we FTR H_0. If small, accept H_0.</t>
+  </si>
+  <si>
+    <t>Depends on form of H_a</t>
   </si>
 </sst>
 </file>
@@ -626,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -883,6 +946,86 @@
       </c>
       <c r="C22" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
